--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value986.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value986.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.531424025186185</v>
+        <v>0.6815446615219116</v>
       </c>
       <c r="B1">
-        <v>4.230272353773788</v>
+        <v>0.6016117334365845</v>
       </c>
       <c r="C1">
-        <v>4.538983144943852</v>
+        <v>3.555123805999756</v>
       </c>
       <c r="D1">
-        <v>1.320700561621009</v>
+        <v>1.945112228393555</v>
       </c>
       <c r="E1">
-        <v>0.8031493892046865</v>
+        <v>1.276267409324646</v>
       </c>
     </row>
   </sheetData>
